--- a/attendance-files/FIM/FIM-D (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-D (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -998,6 +998,9 @@
     <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1013,9 +1016,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1629,11 +1629,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1665,9 +1665,15 @@
       <c r="P7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
+      <c r="Q7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="34"/>
@@ -1693,11 +1699,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>21</v>
@@ -1729,17 +1735,23 @@
       <c r="P8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
+      <c r="Q8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="35">
@@ -1757,11 +1769,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>21</v>
@@ -1793,17 +1805,23 @@
       <c r="P9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
+      <c r="Q9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="35">
@@ -1825,7 +1843,7 @@
       </c>
       <c r="F10" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>21</v>
@@ -1857,17 +1875,23 @@
       <c r="P10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
+      <c r="Q10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="35">
@@ -1889,7 +1913,7 @@
       </c>
       <c r="F11" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>21</v>
@@ -1921,17 +1945,23 @@
       <c r="P11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="35">
@@ -1953,7 +1983,7 @@
       </c>
       <c r="F12" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>21</v>
@@ -1985,17 +2015,23 @@
       <c r="P12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="35">
@@ -2017,7 +2053,7 @@
       </c>
       <c r="F13" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>21</v>
@@ -2049,17 +2085,23 @@
       <c r="P13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="35">
@@ -2081,7 +2123,7 @@
       </c>
       <c r="F14" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>21</v>
@@ -2113,17 +2155,23 @@
       <c r="P14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
+      <c r="Q14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="35">
@@ -2141,11 +2189,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>20</v>
@@ -2177,17 +2225,23 @@
       <c r="P15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
+      <c r="Q15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="35">
@@ -2209,7 +2263,7 @@
       </c>
       <c r="F16" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>21</v>
@@ -2241,17 +2295,23 @@
       <c r="P16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="35">
@@ -2273,7 +2333,7 @@
       </c>
       <c r="F17" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>21</v>
@@ -2305,17 +2365,23 @@
       <c r="P17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
+      <c r="Q17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="35">
@@ -2337,7 +2403,7 @@
       </c>
       <c r="F18" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>21</v>
@@ -2369,17 +2435,23 @@
       <c r="P18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
+      <c r="Q18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="35">
@@ -2397,11 +2469,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>20</v>
@@ -2433,17 +2505,23 @@
       <c r="P19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
+      <c r="Q19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="35">
@@ -2465,7 +2543,7 @@
       </c>
       <c r="F20" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>21</v>
@@ -2497,17 +2575,23 @@
       <c r="P20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
+      <c r="Q20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="35">
@@ -2529,7 +2613,7 @@
       </c>
       <c r="F21" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>20</v>
@@ -2561,17 +2645,23 @@
       <c r="P21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
+      <c r="Q21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="35">
@@ -2593,7 +2683,7 @@
       </c>
       <c r="F22" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>21</v>
@@ -2625,17 +2715,23 @@
       <c r="P22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
+      <c r="Q22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="35">
@@ -2657,7 +2753,7 @@
       </c>
       <c r="F23" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2689,17 +2785,23 @@
       <c r="P23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
+      <c r="Q23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="35">
@@ -2721,7 +2823,7 @@
       </c>
       <c r="F24" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>20</v>
@@ -2753,17 +2855,23 @@
       <c r="P24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
+      <c r="Q24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="35">
@@ -2785,7 +2893,7 @@
       </c>
       <c r="F25" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>20</v>
@@ -2817,17 +2925,23 @@
       <c r="P25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
+      <c r="Q25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="35">
@@ -2845,11 +2959,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>21</v>
@@ -2881,17 +2995,23 @@
       <c r="P26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
+      <c r="Q26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="35">
@@ -2913,7 +3033,7 @@
       </c>
       <c r="F27" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>21</v>
@@ -2945,17 +3065,23 @@
       <c r="P27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="35">
@@ -2977,7 +3103,7 @@
       </c>
       <c r="F28" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>21</v>
@@ -3009,17 +3135,23 @@
       <c r="P28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
+      <c r="Q28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="35">
@@ -3041,7 +3173,7 @@
       </c>
       <c r="F29" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>21</v>
@@ -3073,17 +3205,23 @@
       <c r="P29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
+      <c r="Q29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="35">
@@ -3105,7 +3243,7 @@
       </c>
       <c r="F30" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>20</v>
@@ -3137,17 +3275,23 @@
       <c r="P30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
+      <c r="Q30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="35">
@@ -3169,7 +3313,7 @@
       </c>
       <c r="F31" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>21</v>
@@ -3201,17 +3345,23 @@
       <c r="P31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
+      <c r="Q31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="35">
@@ -3229,11 +3379,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>21</v>
@@ -3265,17 +3415,23 @@
       <c r="P32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
+      <c r="Q32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="35">
@@ -3297,7 +3453,7 @@
       </c>
       <c r="F33" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>20</v>
@@ -3329,17 +3485,23 @@
       <c r="P33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
+      <c r="Q33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="35">
@@ -3361,7 +3523,7 @@
       </c>
       <c r="F34" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>21</v>
@@ -3393,17 +3555,23 @@
       <c r="P34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
+      <c r="Q34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="35">
@@ -3425,7 +3593,7 @@
       </c>
       <c r="F35" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>20</v>
@@ -3457,17 +3625,23 @@
       <c r="P35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
+      <c r="Q35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="35">
@@ -3489,7 +3663,7 @@
       </c>
       <c r="F36" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>21</v>
@@ -3521,17 +3695,23 @@
       <c r="P36" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35">
@@ -3553,7 +3733,7 @@
       </c>
       <c r="F37" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>20</v>
@@ -3585,17 +3765,23 @@
       <c r="P37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
+      <c r="Q37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="35">
@@ -3617,7 +3803,7 @@
       </c>
       <c r="F38" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>20</v>
@@ -3649,17 +3835,23 @@
       <c r="P38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
+      <c r="Q38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="35">
@@ -3681,7 +3873,7 @@
       </c>
       <c r="F39" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>21</v>
@@ -3713,17 +3905,23 @@
       <c r="P39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
+      <c r="Q39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="35">
@@ -3745,7 +3943,7 @@
       </c>
       <c r="F40" s="38">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3777,17 +3975,23 @@
       <c r="P40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
+      <c r="Q40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="35">
@@ -3809,7 +4013,7 @@
       </c>
       <c r="F41" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>21</v>
@@ -3841,17 +4045,23 @@
       <c r="P41" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
+      <c r="Q41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="35">
@@ -3869,11 +4079,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>20</v>
@@ -3905,17 +4115,23 @@
       <c r="P42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
+      <c r="Q42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="35">
@@ -3937,7 +4153,7 @@
       </c>
       <c r="F43" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>21</v>
@@ -3969,17 +4185,23 @@
       <c r="P43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="39"/>
+      <c r="Q43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="35">
@@ -3997,11 +4219,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>21</v>
@@ -4033,17 +4255,23 @@
       <c r="P44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="39"/>
+      <c r="Q44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="35">
@@ -4061,11 +4289,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
@@ -4097,17 +4325,23 @@
       <c r="P45" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="39"/>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="35">
@@ -4129,7 +4363,7 @@
       </c>
       <c r="F46" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>20</v>
@@ -4161,17 +4395,21 @@
       <c r="P46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="39"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="35">
@@ -4193,7 +4431,7 @@
       </c>
       <c r="F47" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>21</v>
@@ -4225,17 +4463,23 @@
       <c r="P47" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
+      <c r="Q47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35">
@@ -4253,11 +4497,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>21</v>
@@ -4289,17 +4533,23 @@
       <c r="P48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
+      <c r="Q48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35">
@@ -4317,11 +4567,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="33" t="s">
         <v>21</v>
@@ -4353,17 +4603,23 @@
       <c r="P49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
+      <c r="Q49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="35">
@@ -4385,7 +4641,7 @@
       </c>
       <c r="F50" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>21</v>
@@ -4417,17 +4673,23 @@
       <c r="P50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
+      <c r="Q50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="35">
@@ -4449,7 +4711,7 @@
       </c>
       <c r="F51" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>21</v>
@@ -4481,17 +4743,23 @@
       <c r="P51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
+      <c r="Q51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="35">
@@ -4509,11 +4777,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>21</v>
@@ -4545,17 +4813,23 @@
       <c r="P52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
+      <c r="Q52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="35">
@@ -4577,7 +4851,7 @@
       </c>
       <c r="F53" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>21</v>
@@ -4609,17 +4883,23 @@
       <c r="P53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
+      <c r="Q53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="35">
@@ -4641,7 +4921,7 @@
       </c>
       <c r="F54" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>21</v>
@@ -4673,17 +4953,23 @@
       <c r="P54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
+      <c r="Q54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="35">
@@ -4705,7 +4991,7 @@
       </c>
       <c r="F55" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>21</v>
@@ -4737,17 +5023,23 @@
       <c r="P55" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
+      <c r="Q55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="35">
@@ -4769,7 +5061,7 @@
       </c>
       <c r="F56" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>21</v>
@@ -4801,17 +5093,23 @@
       <c r="P56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
+      <c r="Q56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="35">
@@ -4833,7 +5131,7 @@
       </c>
       <c r="F57" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>21</v>
@@ -4865,17 +5163,23 @@
       <c r="P57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35">
@@ -4897,7 +5201,7 @@
       </c>
       <c r="F58" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>21</v>
@@ -4929,17 +5233,23 @@
       <c r="P58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
+      <c r="Q58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35">
@@ -4957,11 +5267,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>21</v>
@@ -4993,17 +5303,23 @@
       <c r="P59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
+      <c r="Q59" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35">
@@ -5021,11 +5337,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>21</v>
@@ -5057,17 +5373,23 @@
       <c r="P60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
+      <c r="Q60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35">
@@ -5085,11 +5407,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>21</v>
@@ -5121,17 +5443,23 @@
       <c r="P61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
+      <c r="Q61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="35">
@@ -5153,7 +5481,7 @@
       </c>
       <c r="F62" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>21</v>
@@ -5185,17 +5513,23 @@
       <c r="P62" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
+      <c r="Q62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="35">
@@ -5217,7 +5551,7 @@
       </c>
       <c r="F63" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>21</v>
@@ -5249,17 +5583,23 @@
       <c r="P63" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
+      <c r="Q63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="35">
@@ -5281,7 +5621,7 @@
       </c>
       <c r="F64" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G64" s="33" t="s">
         <v>21</v>
@@ -5313,17 +5653,23 @@
       <c r="P64" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
+      <c r="Q64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="35">
@@ -5345,7 +5691,7 @@
       </c>
       <c r="F65" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>21</v>
@@ -5377,17 +5723,23 @@
       <c r="P65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
+      <c r="Q65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="35">
@@ -5409,9 +5761,9 @@
       </c>
       <c r="F66" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G66" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="31" t="s">
@@ -5441,17 +5793,23 @@
       <c r="P66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
+      <c r="Q66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="35">
@@ -5473,7 +5831,7 @@
       </c>
       <c r="F67" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>21</v>
@@ -5505,17 +5863,23 @@
       <c r="P67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="35">
@@ -5537,7 +5901,7 @@
       </c>
       <c r="F68" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>21</v>
@@ -5569,17 +5933,23 @@
       <c r="P68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
+      <c r="Q68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="35">
@@ -5601,7 +5971,7 @@
       </c>
       <c r="F69" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>20</v>
@@ -5633,17 +6003,23 @@
       <c r="P69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
+      <c r="Q69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="40"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="35">
@@ -5665,7 +6041,7 @@
       </c>
       <c r="F70" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>21</v>
@@ -5697,17 +6073,23 @@
       <c r="P70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
+      <c r="Q70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="35">
@@ -5725,11 +6107,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>21</v>
@@ -5761,17 +6143,23 @@
       <c r="P71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
-      <c r="AA71" s="39"/>
+      <c r="Q71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="40"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="35">
@@ -5789,11 +6177,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="38">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>21</v>
@@ -5825,17 +6213,23 @@
       <c r="P72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="39"/>
+      <c r="Q72" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
+      <c r="AA72" s="40"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="35">
@@ -5857,7 +6251,7 @@
       </c>
       <c r="F73" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>21</v>
@@ -5889,17 +6283,23 @@
       <c r="P73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
-      <c r="AA73" s="39"/>
+      <c r="Q73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="40"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="35">
@@ -5917,11 +6317,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="33" t="s">
         <v>21</v>
@@ -5953,17 +6353,23 @@
       <c r="P74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
-      <c r="AA74" s="39"/>
+      <c r="Q74" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
+      <c r="AA74" s="40"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="35">
@@ -5985,7 +6391,7 @@
       </c>
       <c r="F75" s="38">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G75" s="33" t="s">
         <v>21</v>
@@ -6017,17 +6423,23 @@
       <c r="P75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
-      <c r="AA75" s="39"/>
+      <c r="Q75" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="40"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="35">
@@ -6045,11 +6457,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="33" t="s">
         <v>21</v>
@@ -6081,17 +6493,23 @@
       <c r="P76" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
+      <c r="Q76" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="35">
@@ -6109,11 +6527,11 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>20</v>
@@ -6145,17 +6563,23 @@
       <c r="P77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
-      <c r="AA77" s="39"/>
+      <c r="Q77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="35" t="str">
@@ -6163,9 +6587,9 @@
         <v/>
       </c>
       <c r="B78" s="36"/>
-      <c r="C78" s="41"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="27"/>
-      <c r="E78" s="42" t="str">
+      <c r="E78" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6174,26 +6598,26 @@
         <v/>
       </c>
       <c r="G78" s="30"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
       <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
-      <c r="AA78" s="39"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
+      <c r="AA78" s="40"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="35" t="str">
@@ -6201,9 +6625,9 @@
         <v/>
       </c>
       <c r="B79" s="36"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="42" t="str">
+      <c r="C79" s="42"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6212,26 +6636,26 @@
         <v/>
       </c>
       <c r="G79" s="30"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
       <c r="J79" s="31"/>
       <c r="K79" s="31"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="40"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="35" t="str">
@@ -6239,9 +6663,9 @@
         <v/>
       </c>
       <c r="B80" s="36"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42" t="str">
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6250,26 +6674,26 @@
         <v/>
       </c>
       <c r="G80" s="30"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
       <c r="J80" s="31"/>
       <c r="K80" s="31"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
       <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
-      <c r="AA80" s="39"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="35" t="str">
@@ -6277,9 +6701,9 @@
         <v/>
       </c>
       <c r="B81" s="36"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42" t="str">
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6288,26 +6712,26 @@
         <v/>
       </c>
       <c r="G81" s="30"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
       <c r="J81" s="31"/>
       <c r="K81" s="31"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
-      <c r="AA81" s="39"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="40"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="35" t="str">
@@ -6315,9 +6739,9 @@
         <v/>
       </c>
       <c r="B82" s="36"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42" t="str">
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6326,26 +6750,26 @@
         <v/>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
       <c r="J82" s="31"/>
       <c r="K82" s="31"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="39"/>
-      <c r="AA82" s="39"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="35" t="str">
@@ -6353,9 +6777,9 @@
         <v/>
       </c>
       <c r="B83" s="36"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42" t="str">
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6363,27 +6787,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
       <c r="J83" s="31"/>
       <c r="K83" s="31"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
-      <c r="AA83" s="39"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
+      <c r="AA83" s="40"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="35" t="str">
@@ -6391,9 +6815,9 @@
         <v/>
       </c>
       <c r="B84" s="36"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42" t="str">
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6401,37 +6825,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="44"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
       <c r="J84" s="31"/>
       <c r="K84" s="31"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39"/>
-      <c r="AA84" s="39"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
+      <c r="AA84" s="40"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42" t="str">
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6439,37 +6863,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
       <c r="J85" s="31"/>
       <c r="K85" s="31"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="39"/>
-      <c r="AA85" s="39"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
+      <c r="Z85" s="40"/>
+      <c r="AA85" s="40"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42" t="str">
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6477,37 +6901,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
       <c r="J86" s="31"/>
       <c r="K86" s="31"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
-      <c r="AA86" s="39"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42" t="str">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6515,37 +6939,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
       <c r="J87" s="31"/>
       <c r="K87" s="31"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
-      <c r="AA87" s="39"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42" t="str">
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6553,37 +6977,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
       <c r="J88" s="31"/>
       <c r="K88" s="31"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
-      <c r="AA88" s="39"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42" t="str">
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6591,37 +7015,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="44"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
       <c r="J89" s="31"/>
       <c r="K89" s="31"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
-      <c r="AA89" s="39"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="40"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42" t="str">
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6629,37 +7053,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
       <c r="J90" s="31"/>
       <c r="K90" s="31"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
-      <c r="AA90" s="39"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40"/>
+      <c r="AA90" s="40"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42" t="str">
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6667,37 +7091,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
       <c r="J91" s="31"/>
       <c r="K91" s="31"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="40"/>
+      <c r="AA91" s="40"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42" t="str">
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6705,37 +7129,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="44"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
       <c r="J92" s="31"/>
       <c r="K92" s="31"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
-      <c r="AA92" s="39"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
+      <c r="AA92" s="40"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42" t="str">
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6743,37 +7167,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="44"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
       <c r="J93" s="31"/>
       <c r="K93" s="31"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
-      <c r="Z93" s="39"/>
-      <c r="AA93" s="39"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
+      <c r="Z93" s="40"/>
+      <c r="AA93" s="40"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42" t="str">
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6781,37 +7205,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
       <c r="J94" s="31"/>
       <c r="K94" s="31"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="39"/>
-      <c r="Y94" s="39"/>
-      <c r="Z94" s="39"/>
-      <c r="AA94" s="39"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="40"/>
+      <c r="T94" s="40"/>
+      <c r="U94" s="40"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="40"/>
+      <c r="X94" s="40"/>
+      <c r="Y94" s="40"/>
+      <c r="Z94" s="40"/>
+      <c r="AA94" s="40"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42" t="str">
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6819,27 +7243,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
-      <c r="Z95" s="39"/>
-      <c r="AA95" s="39"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="40"/>
+      <c r="U95" s="40"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="40"/>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
+      <c r="Z95" s="40"/>
+      <c r="AA95" s="40"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="J96" s="47"/>
